--- a/docs/UI/Sidehierarki.xlsx
+++ b/docs/UI/Sidehierarki.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="B3:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
